--- a/municipal/მშენებლობა/მშენებლობაზე გაცემული ნებართვები/მცხეთა-მთიანეთი/მცხეთა.xlsx
+++ b/municipal/მშენებლობა/მშენებლობაზე გაცემული ნებართვები/მცხეთა-მთიანეთი/მცხეთა.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\მშენებლობა\მშენებლობაზე გაცემული ნებართვები\მცხეთა-მთიანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\მშენებლობა ქარ EN\მშენებლობაზე გაცემული ნებართვები ქარ. EN\მშენებლობაზე გაცემული ნებართვები\მცხეთა-მთიანეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,28 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>...- მონაცემი არ არის ან კონფიდენციალურია</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>საერთო ფართობი კვ.მ</t>
   </si>
   <si>
     <t>რაოდენობა</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2022        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>იანვარი-ივნისი</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">(დეკლარირებული მონაცემები) </t>
@@ -110,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -138,11 +122,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -155,9 +148,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -172,14 +162,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,48 +460,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="2" customWidth="1"/>
-    <col min="2" max="14" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="51" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
+    <row r="1" spans="1:22" ht="51" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -524,155 +521,149 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" s="8" customFormat="1" ht="43.5" thickBot="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10">
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9">
         <v>2010</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>2011</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>2012</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>2013</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>2014</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>2015</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>2016</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>2017</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>2018</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>2019</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>2020</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>2021</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="9"/>
-    </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="N3" s="9">
+        <v>2022</v>
+      </c>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
         <v>158</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>186</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>193</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>208</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="14">
         <v>242</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>286</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <v>312</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="14">
         <v>270</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="14">
         <v>330</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="14">
         <v>492</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="14">
         <v>466</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="14">
         <v>773</v>
       </c>
-      <c r="N4" s="13">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="N4" s="17">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="16">
         <v>70993</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="16">
         <v>61016</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <v>111807</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>57756</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>79628</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="16">
         <v>104324</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="16">
         <v>138196</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="16">
         <v>68813</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="16">
         <v>123000</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="16">
         <v>179108</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="16">
         <v>152596</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="16">
         <v>262581</v>
       </c>
-      <c r="N5" s="13">
-        <v>112283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="50.25" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="N5" s="16">
+        <v>272594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="50.25" customHeight="1">
+      <c r="A6" s="5"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:22">
       <c r="B10" s="4"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:22">
       <c r="E15" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>